--- a/최종/UseCase_Description.xlsx
+++ b/최종/UseCase_Description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\소공\과제 2\c135180_변보경\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD792CB2-0B8A-41DC-B053-48215FE4D5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2897875D-F2EE-40D5-888C-83166C730671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,34 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. 종료 메뉴명을 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 자전거 등록 메뉴명과, 등록된 자전거 ID, 자전거 제품명을 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 회원가입 메뉴명과, 회원이 등록한 ID, 비밀번호, 전화번호를 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 로그인 메뉴명과, 사용자의 ID, 비밀번호를 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 로그아웃 메뉴명과, 사용자의 ID를 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 자전거 대여 메뉴명과, 대여 완료된 자전거 ID, 자전거 제품명을 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 자전거 대여 메뉴명과, 대여 중인 자전거 ID, 자전거 제품명의 리스트를 출력한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.1 자전거 대여 정보 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,6 +94,34 @@
   </si>
   <si>
     <t>1. 사용자는 ID와 비밀번호를 입력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. "자전거 대여 리스트" 메뉴명과, 대여 중인 자전거 ID, 자전거 제품명의 리스트를 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. "자전거 대여" 메뉴명과, 대여 완료된 자전거 ID, 자전거 제품명을 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. "종료" 메뉴명을 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. "자전거 등록" 메뉴명과, 등록된 자전거 ID, 자전거 제품명을 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. "로그아웃" 메뉴명과, 사용자의 ID를 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. "로그인" 메뉴명과, 사용자의 ID, 비밀번호를 출력한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. "회원가입" 메뉴명과, 회원이 등록한 ID, 비밀번호, 전화번호를 출력한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +627,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -660,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -679,10 +679,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -723,10 +723,10 @@
     </row>
     <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -761,7 +761,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B23" s="7"/>
     </row>
@@ -778,12 +778,12 @@
         <v>3</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B27" s="3"/>
     </row>
@@ -800,7 +800,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
